--- a/data/trans_orig/P33A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>252930</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>239480</v>
+        <v>240541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>263931</v>
+        <v>263572</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8609328628585536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8151524539601779</v>
+        <v>0.8187642436215958</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8983796097079831</v>
+        <v>0.8971548677122094</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -764,19 +764,19 @@
         <v>202427</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>186182</v>
+        <v>183845</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>217782</v>
+        <v>217594</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7195460275431395</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6618021277502555</v>
+        <v>0.6534962172962078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7741263085247727</v>
+        <v>0.7734593497787621</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>418</v>
@@ -785,19 +785,19 @@
         <v>455357</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>437168</v>
+        <v>432230</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>474697</v>
+        <v>473443</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7917709480409347</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7601439143451336</v>
+        <v>0.7515575095950958</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8253993649549715</v>
+        <v>0.8232185058619309</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>40856</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29855</v>
+        <v>30214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54306</v>
+        <v>53245</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1390671371414464</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1016203902920168</v>
+        <v>0.1028451322877904</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.184847546039822</v>
+        <v>0.1812357563784041</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -835,19 +835,19 @@
         <v>78899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63544</v>
+        <v>63732</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95144</v>
+        <v>97481</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2804539724568605</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2258736914752275</v>
+        <v>0.2265406502212381</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3381978722497446</v>
+        <v>0.3465037827037925</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>113</v>
@@ -856,19 +856,19 @@
         <v>119755</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>100415</v>
+        <v>101669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>137944</v>
+        <v>142882</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2082290519590653</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.174600635045029</v>
+        <v>0.1767814941380691</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2398560856548665</v>
+        <v>0.2484424904049041</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>416541</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>395637</v>
+        <v>398544</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>431784</v>
+        <v>432979</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8361128596956792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7941534403578108</v>
+        <v>0.7999891061231896</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8667113070694095</v>
+        <v>0.8691086593601038</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>332</v>
@@ -981,19 +981,19 @@
         <v>360012</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>337876</v>
+        <v>336944</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>381798</v>
+        <v>381747</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.691653362652367</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6491265344359466</v>
+        <v>0.6473346413089891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7335082320837045</v>
+        <v>0.7334102952625035</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>721</v>
@@ -1002,19 +1002,19 @@
         <v>776552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>746993</v>
+        <v>746044</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>805963</v>
+        <v>806551</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7623003986042844</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7332830974271523</v>
+        <v>0.7323517489843394</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7911709177351745</v>
+        <v>0.791748380461851</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>81646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66403</v>
+        <v>65208</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>102550</v>
+        <v>99643</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1638871403043208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1332886929305906</v>
+        <v>0.1308913406398962</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2058465596421894</v>
+        <v>0.2000108938768104</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>145</v>
@@ -1052,19 +1052,19 @@
         <v>160497</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>138711</v>
+        <v>138762</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>182633</v>
+        <v>183565</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3083466373476331</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2664917679162954</v>
+        <v>0.2665897047374966</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3508734655640534</v>
+        <v>0.3526653586910109</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>221</v>
@@ -1073,19 +1073,19 @@
         <v>242144</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>212733</v>
+        <v>212145</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>271703</v>
+        <v>272652</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2376996013957156</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2088290822648256</v>
+        <v>0.208251619538149</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2667169025728478</v>
+        <v>0.2676482510156606</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>275596</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>263729</v>
+        <v>263600</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>286578</v>
+        <v>287977</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8584471436771134</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8214841744503197</v>
+        <v>0.8210800068055227</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8926562950344916</v>
+        <v>0.8970137228511896</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>236</v>
@@ -1198,19 +1198,19 @@
         <v>255814</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>236905</v>
+        <v>239696</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>271720</v>
+        <v>272555</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7501439376840683</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6946939866502555</v>
+        <v>0.7028784983651426</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.796786413549584</v>
+        <v>0.7992337620460128</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>505</v>
@@ -1219,19 +1219,19 @@
         <v>531410</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>509861</v>
+        <v>510403</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>550506</v>
+        <v>551098</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8026613572764026</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7701134967577563</v>
+        <v>0.7709311426573476</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8315052567773181</v>
+        <v>0.8323993068041963</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>45444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34462</v>
+        <v>33063</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>57311</v>
+        <v>57440</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1415528563228866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1073437049655083</v>
+        <v>0.1029862771488102</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1785158255496803</v>
+        <v>0.1789199931944772</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>81</v>
@@ -1269,19 +1269,19 @@
         <v>85206</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69300</v>
+        <v>68465</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>104115</v>
+        <v>101324</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2498560623159317</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2032135864504159</v>
+        <v>0.200766237953987</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3053060133497444</v>
+        <v>0.2971215016348573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>128</v>
@@ -1290,19 +1290,19 @@
         <v>130650</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>111554</v>
+        <v>110962</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>152199</v>
+        <v>151657</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1973386427235974</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1684947432226819</v>
+        <v>0.1676006931958037</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2298865032422436</v>
+        <v>0.2290688573426524</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>291356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>274148</v>
+        <v>270869</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>308388</v>
+        <v>307224</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.779064971296192</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.73305253593789</v>
+        <v>0.7242823701329224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8246053121919054</v>
+        <v>0.8214938271297083</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>220</v>
@@ -1415,19 +1415,19 @@
         <v>229432</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>210103</v>
+        <v>209866</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>247621</v>
+        <v>250010</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5912951628602529</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5414812975589289</v>
+        <v>0.5408695787225113</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6381729415296751</v>
+        <v>0.6443287287935926</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>491</v>
@@ -1436,19 +1436,19 @@
         <v>520788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>494551</v>
+        <v>494253</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>549077</v>
+        <v>546389</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6834509890067465</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6490190187683734</v>
+        <v>0.6486281025976844</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7205750676129097</v>
+        <v>0.7170479872501596</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>82626</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65594</v>
+        <v>66758</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99834</v>
+        <v>103113</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.220935028703808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1753946878080947</v>
+        <v>0.1785061728702919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2669474640621103</v>
+        <v>0.275717629867078</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>150</v>
@@ -1486,19 +1486,19 @@
         <v>158584</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>140395</v>
+        <v>138006</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>177913</v>
+        <v>178150</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4087048371397471</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3618270584703247</v>
+        <v>0.3556712712064075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.458518702441071</v>
+        <v>0.4591304212774886</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>223</v>
@@ -1507,19 +1507,19 @@
         <v>241210</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>212921</v>
+        <v>215609</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>267447</v>
+        <v>267745</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3165490109932534</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2794249323870903</v>
+        <v>0.2829520127498404</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3509809812316264</v>
+        <v>0.3513718974023156</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>187152</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>177129</v>
+        <v>176349</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>195104</v>
+        <v>195473</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8845637103503051</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8371884818170446</v>
+        <v>0.8335003910337927</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9221450861917546</v>
+        <v>0.9238922785817826</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -1632,19 +1632,19 @@
         <v>153301</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>138766</v>
+        <v>139445</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>167592</v>
+        <v>168039</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6981222892770708</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6319284903717796</v>
+        <v>0.6350231770573406</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7632017384991154</v>
+        <v>0.7652352418028365</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>320</v>
@@ -1653,19 +1653,19 @@
         <v>340454</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>321294</v>
+        <v>322306</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>355979</v>
+        <v>356229</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7896100152044293</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7451721105584573</v>
+        <v>0.7475195220841662</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8256185740354408</v>
+        <v>0.8261967019179589</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>24424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16472</v>
+        <v>16103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34447</v>
+        <v>35227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1154362896496949</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0778549138082453</v>
+        <v>0.07610772141821752</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1628115181829553</v>
+        <v>0.1664996089662074</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -1703,19 +1703,19 @@
         <v>66290</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>51999</v>
+        <v>51552</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>80825</v>
+        <v>80146</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3018777107229292</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2367982615008845</v>
+        <v>0.2347647581971634</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3680715096282205</v>
+        <v>0.3649768229426594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>87</v>
@@ -1724,19 +1724,19 @@
         <v>90713</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75188</v>
+        <v>74938</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>109873</v>
+        <v>108861</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2103899847955707</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.174381425964559</v>
+        <v>0.1738032980820411</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2548278894415426</v>
+        <v>0.2524804779158338</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>230079</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>217297</v>
+        <v>215270</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>241663</v>
+        <v>241336</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8397635272217493</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7931101901692087</v>
+        <v>0.7857099988074414</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8820441094820786</v>
+        <v>0.8808495218845983</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>200</v>
@@ -1849,19 +1849,19 @@
         <v>207177</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>190527</v>
+        <v>190485</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>221185</v>
+        <v>221864</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7424244998821508</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.682757872073431</v>
+        <v>0.682606705118413</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7926210804022635</v>
+        <v>0.7950556688380416</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>421</v>
@@ -1870,19 +1870,19 @@
         <v>437257</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>416194</v>
+        <v>415585</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>455120</v>
+        <v>456086</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7906475025677899</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7525614795136394</v>
+        <v>0.7514612227938104</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8229483272146256</v>
+        <v>0.8246946887670821</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>43902</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32318</v>
+        <v>32645</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56684</v>
+        <v>58711</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1602364727782506</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1179558905179215</v>
+        <v>0.1191504781154018</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2068898098307907</v>
+        <v>0.2142900011925586</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -1920,19 +1920,19 @@
         <v>71878</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57870</v>
+        <v>57191</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>88528</v>
+        <v>88570</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2575755001178492</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2073789195977365</v>
+        <v>0.2049443311619585</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.317242127926569</v>
+        <v>0.3173932948815869</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>108</v>
@@ -1941,19 +1941,19 @@
         <v>115779</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>97916</v>
+        <v>96950</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>136842</v>
+        <v>137451</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2093524974322101</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1770516727853744</v>
+        <v>0.1753053112329178</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2474385204863606</v>
+        <v>0.2485387772061895</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>562247</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>542426</v>
+        <v>542313</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>581080</v>
+        <v>579237</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8520472328225859</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8220094111942436</v>
+        <v>0.8218379086580498</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8805866537862488</v>
+        <v>0.8777941834072064</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>472</v>
@@ -2066,19 +2066,19 @@
         <v>515651</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>491344</v>
+        <v>489983</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>538555</v>
+        <v>537801</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7455866338707395</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.710441692584171</v>
+        <v>0.7084734619892537</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7787047265182697</v>
+        <v>0.7776142960059786</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>989</v>
@@ -2087,19 +2087,19 @@
         <v>1077898</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1044646</v>
+        <v>1047715</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1105602</v>
+        <v>1105005</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.797567361977053</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7729631758975785</v>
+        <v>0.7752339866118325</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8180665855179085</v>
+        <v>0.8176245737491262</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>97631</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>78798</v>
+        <v>80641</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>117452</v>
+        <v>117565</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1479527671774141</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1194133462137511</v>
+        <v>0.1222058165927936</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1779905888057563</v>
+        <v>0.1781620913419502</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>162</v>
@@ -2137,19 +2137,19 @@
         <v>175953</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>153049</v>
+        <v>153803</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>200260</v>
+        <v>201621</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2544133661292605</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2212952734817303</v>
+        <v>0.2223857039940213</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.289558307415829</v>
+        <v>0.2915265380107464</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>261</v>
@@ -2158,19 +2158,19 @@
         <v>273584</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>245880</v>
+        <v>246477</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>306836</v>
+        <v>303767</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.202432638022947</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1819334144820915</v>
+        <v>0.1823754262508737</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2270368241024215</v>
+        <v>0.2247660133881675</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>670999</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>650506</v>
+        <v>650253</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>688363</v>
+        <v>690376</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8723248195614135</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8456823691516187</v>
+        <v>0.8453534489879319</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8948981240177015</v>
+        <v>0.8975160047771875</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>610</v>
@@ -2283,19 +2283,19 @@
         <v>666071</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>639837</v>
+        <v>643255</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>685630</v>
+        <v>686444</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8216470699620388</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.789285325980164</v>
+        <v>0.793502204189079</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.845775499434642</v>
+        <v>0.8467788455577083</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1228</v>
@@ -2304,19 +2304,19 @@
         <v>1337070</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1308823</v>
+        <v>1306382</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1368183</v>
+        <v>1365984</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.846321210815864</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8284416593413064</v>
+        <v>0.8268967322136787</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8660146713271396</v>
+        <v>0.8646230100546849</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>98209</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>80845</v>
+        <v>78832</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118702</v>
+        <v>118955</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1276751804385865</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1051018759822985</v>
+        <v>0.1024839952228124</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1543176308483813</v>
+        <v>0.154646551012068</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>134</v>
@@ -2354,19 +2354,19 @@
         <v>144582</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>125023</v>
+        <v>124209</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>170816</v>
+        <v>167398</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1783529300379611</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1542245005653582</v>
+        <v>0.1532211544422918</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2107146740198363</v>
+        <v>0.2064977958109211</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>223</v>
@@ -2375,19 +2375,19 @@
         <v>242791</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>211678</v>
+        <v>213877</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>271038</v>
+        <v>273479</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.153678789184136</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1339853286728604</v>
+        <v>0.135376989945315</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1715583406586935</v>
+        <v>0.1731032677863211</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>2886901</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2842146</v>
+        <v>2845025</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2928189</v>
+        <v>2930440</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8486796192072714</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8355227235786861</v>
+        <v>0.8363689975158747</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8608174005569598</v>
+        <v>0.8614790309559898</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2396</v>
@@ -2500,19 +2500,19 @@
         <v>2589885</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2536982</v>
+        <v>2537173</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2641765</v>
+        <v>2639494</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.73330991961533</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7183307788989737</v>
+        <v>0.7183848724880929</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7479994395276697</v>
+        <v>0.7473563928724799</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5093</v>
@@ -2521,19 +2521,19 @@
         <v>5476786</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5405869</v>
+        <v>5401811</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5540248</v>
+        <v>5544177</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7899120539039995</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7796837855505699</v>
+        <v>0.7790984735029828</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7990651763573907</v>
+        <v>0.7996317895769098</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>514737</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>473449</v>
+        <v>471198</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>559492</v>
+        <v>556613</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1513203807927286</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1391825994430401</v>
+        <v>0.1385209690440102</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1644772764213137</v>
+        <v>0.1636310024841253</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>876</v>
@@ -2571,19 +2571,19 @@
         <v>941889</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>890009</v>
+        <v>892280</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>994792</v>
+        <v>994601</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.26669008038467</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2520005604723302</v>
+        <v>0.2526436071275203</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2816692211010262</v>
+        <v>0.2816151275119073</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1364</v>
@@ -2592,19 +2592,19 @@
         <v>1456626</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1393164</v>
+        <v>1389235</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1527543</v>
+        <v>1531601</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2100879460960004</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2009348236426092</v>
+        <v>0.2003682104230902</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2203162144494301</v>
+        <v>0.2209015264970167</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>224553</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>208701</v>
+        <v>208155</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>238430</v>
+        <v>237835</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7722897959312827</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7177713310201468</v>
+        <v>0.715893147145319</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8200162751080249</v>
+        <v>0.8179714614406832</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>174</v>
@@ -2961,19 +2961,19 @@
         <v>179821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>162582</v>
+        <v>162078</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195653</v>
+        <v>195512</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6328798561838793</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5722081204578526</v>
+        <v>0.5704335747468687</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6886031130776228</v>
+        <v>0.6881039061424602</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>379</v>
@@ -2982,19 +2982,19 @@
         <v>404373</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>381645</v>
+        <v>378458</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>425825</v>
+        <v>424721</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7033888119346329</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.663854062846959</v>
+        <v>0.658311001647425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7407032127629392</v>
+        <v>0.7387823443107535</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>66209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52332</v>
+        <v>52927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82061</v>
+        <v>82607</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2277102040687173</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1799837248919752</v>
+        <v>0.1820285385593168</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2822286689798534</v>
+        <v>0.2841068528546807</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -3032,19 +3032,19 @@
         <v>104310</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88478</v>
+        <v>88619</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121549</v>
+        <v>122053</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3671201438161207</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3113968869223771</v>
+        <v>0.3118960938575397</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4277918795421473</v>
+        <v>0.4295664252531312</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>157</v>
@@ -3053,19 +3053,19 @@
         <v>170520</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>149068</v>
+        <v>150172</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193248</v>
+        <v>196435</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2966111880653671</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2592967872370609</v>
+        <v>0.2612176556892465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3361459371530409</v>
+        <v>0.3416889983525749</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>463298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>449909</v>
+        <v>449704</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>473156</v>
+        <v>475093</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9237210478835133</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8970272306720831</v>
+        <v>0.8966184317185332</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.943376465718112</v>
+        <v>0.9472380974997658</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>394</v>
@@ -3178,19 +3178,19 @@
         <v>425310</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>406991</v>
+        <v>403983</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>442194</v>
+        <v>441651</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8205374632055746</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7851948782102716</v>
+        <v>0.7793925403880998</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8531104145801024</v>
+        <v>0.8520628824136737</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>832</v>
@@ -3199,19 +3199,19 @@
         <v>888608</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>865501</v>
+        <v>863080</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>908956</v>
+        <v>907137</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8712806421678024</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8486241183889103</v>
+        <v>0.8462503019572981</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8912324540052055</v>
+        <v>0.8894488875800467</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>38258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28400</v>
+        <v>26463</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51647</v>
+        <v>51852</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07627895211648671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05662353428188802</v>
+        <v>0.05276190250023421</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1029727693279168</v>
+        <v>0.1033815682814668</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>86</v>
@@ -3249,19 +3249,19 @@
         <v>93021</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76137</v>
+        <v>76680</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>111340</v>
+        <v>114348</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1794625367944253</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1468895854198976</v>
+        <v>0.147937117586327</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.214805121789729</v>
+        <v>0.2206074596119003</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>122</v>
@@ -3270,19 +3270,19 @@
         <v>131279</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>110931</v>
+        <v>112750</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>154386</v>
+        <v>156807</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1287193578321975</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1087675459947947</v>
+        <v>0.1105511124199533</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.15137588161109</v>
+        <v>0.1537496980427019</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>285630</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>273887</v>
+        <v>275276</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>294359</v>
+        <v>294197</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.911132048435873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8736739872171774</v>
+        <v>0.8781052322519566</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.938975658048789</v>
+        <v>0.9384589904336497</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>256</v>
@@ -3395,19 +3395,19 @@
         <v>258530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>244796</v>
+        <v>242524</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>272437</v>
+        <v>271529</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7919571921037272</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7498861451255797</v>
+        <v>0.7429275196204995</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8345594196264838</v>
+        <v>0.831778248558326</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>557</v>
@@ -3416,19 +3416,19 @@
         <v>544159</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>524056</v>
+        <v>525225</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>560616</v>
+        <v>561787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.850338283567191</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8189252759873299</v>
+        <v>0.8207517350610928</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8760557715098286</v>
+        <v>0.8778858861612889</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>27859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19130</v>
+        <v>19292</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39602</v>
+        <v>38213</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08886795156412701</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06102434195121099</v>
+        <v>0.06154100956635026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1263260127828222</v>
+        <v>0.1218947677480434</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -3466,19 +3466,19 @@
         <v>67914</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>54007</v>
+        <v>54915</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>81648</v>
+        <v>83920</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2080428078962729</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1654405803735162</v>
+        <v>0.1682217514416739</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2501138548744202</v>
+        <v>0.2570724803795006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>96</v>
@@ -3487,19 +3487,19 @@
         <v>95773</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>79316</v>
+        <v>78145</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>115876</v>
+        <v>114707</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1496617164328091</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1239442284901709</v>
+        <v>0.1221141138387109</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1810747240126698</v>
+        <v>0.1792482649389057</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>294605</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>277742</v>
+        <v>278488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>309300</v>
+        <v>309099</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7980619562517036</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7523811499843099</v>
+        <v>0.7544010498640007</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8378681627508701</v>
+        <v>0.8373226864022709</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>226</v>
@@ -3612,19 +3612,19 @@
         <v>245048</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>224939</v>
+        <v>225427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>263147</v>
+        <v>264097</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6432170298079781</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.590433701796669</v>
+        <v>0.5917149922371761</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.690723457626051</v>
+        <v>0.6932162097618076</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>509</v>
@@ -3633,19 +3633,19 @@
         <v>539654</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>510352</v>
+        <v>514339</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>563640</v>
+        <v>564439</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7194193706166341</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6803574648935525</v>
+        <v>0.6856724462176819</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7513953745661301</v>
+        <v>0.7524613203307808</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>74546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59851</v>
+        <v>60052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91409</v>
+        <v>90663</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2019380437482964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1621318372491301</v>
+        <v>0.1626773135977291</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2476188500156902</v>
+        <v>0.2455989501359993</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>127</v>
@@ -3683,19 +3683,19 @@
         <v>135925</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117826</v>
+        <v>116876</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156034</v>
+        <v>155546</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3567829701920219</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.309276542373949</v>
+        <v>0.3067837902381924</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4095662982033311</v>
+        <v>0.4082850077628241</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>197</v>
@@ -3704,19 +3704,19 @@
         <v>210470</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>186484</v>
+        <v>185685</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>239772</v>
+        <v>235785</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2805806293833659</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2486046254338699</v>
+        <v>0.2475386796692192</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3196425351064475</v>
+        <v>0.3143275537823181</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>162470</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>148780</v>
+        <v>149546</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>174138</v>
+        <v>173633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7727064577370687</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7075951892319783</v>
+        <v>0.7112419206781628</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8282005262664769</v>
+        <v>0.8257991092932929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>171</v>
@@ -3829,19 +3829,19 @@
         <v>167904</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>153686</v>
+        <v>155519</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>178530</v>
+        <v>178610</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.771598367059124</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7062594213629041</v>
+        <v>0.7146834018565641</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8204282303971037</v>
+        <v>0.820794433719833</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>334</v>
@@ -3850,19 +3850,19 @@
         <v>330374</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>313128</v>
+        <v>312903</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>346161</v>
+        <v>346435</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7721429002282149</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7318348969432907</v>
+        <v>0.7313089831824524</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8090387955064192</v>
+        <v>0.8096782360147337</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>47791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36123</v>
+        <v>36628</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61481</v>
+        <v>60715</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2272935422629312</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1717994737335231</v>
+        <v>0.1742008907067069</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2924048107680225</v>
+        <v>0.288758079321837</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -3900,19 +3900,19 @@
         <v>49702</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39076</v>
+        <v>38996</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63920</v>
+        <v>62087</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2284016329408761</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1795717696028963</v>
+        <v>0.1792055662801671</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.293740578637096</v>
+        <v>0.285316598143436</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>99</v>
@@ -3921,19 +3921,19 @@
         <v>97493</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>81706</v>
+        <v>81432</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>114739</v>
+        <v>114964</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2278570997717852</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1909612044935807</v>
+        <v>0.1903217639852664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2681651030567092</v>
+        <v>0.2686910168175476</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>218137</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>206519</v>
+        <v>205261</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>229146</v>
+        <v>227945</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8489928958412463</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8037774906012634</v>
+        <v>0.7988791406621266</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.891840022102811</v>
+        <v>0.8871648646789684</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>187</v>
@@ -4046,19 +4046,19 @@
         <v>192786</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>176623</v>
+        <v>176683</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>207983</v>
+        <v>205471</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7332055704529377</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6717355776586538</v>
+        <v>0.6719621984343577</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7910027687223166</v>
+        <v>0.7814506084627771</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>401</v>
@@ -4067,19 +4067,19 @@
         <v>410923</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>391808</v>
+        <v>390323</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>430428</v>
+        <v>429879</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.790431144953355</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7536626592834048</v>
+        <v>0.7508068446398143</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8279496535009817</v>
+        <v>0.8268939409918499</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>38799</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27790</v>
+        <v>28991</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50417</v>
+        <v>51675</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1510071041587537</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1081599778971893</v>
+        <v>0.1128351353210316</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1962225093987371</v>
+        <v>0.2011208593378734</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>66</v>
@@ -4117,19 +4117,19 @@
         <v>70150</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>54953</v>
+        <v>57465</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86313</v>
+        <v>86253</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2667944295470623</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2089972312776829</v>
+        <v>0.2185493915372229</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3282644223413463</v>
+        <v>0.3280378015656424</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>105</v>
@@ -4138,19 +4138,19 @@
         <v>108949</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>89444</v>
+        <v>89993</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>128064</v>
+        <v>129549</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2095688550466451</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1720503464990182</v>
+        <v>0.1731060590081501</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2463373407165949</v>
+        <v>0.2491931553601857</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>536314</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>514422</v>
+        <v>515158</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>555147</v>
+        <v>553640</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8257539347538131</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7920469627359771</v>
+        <v>0.7931798278795592</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8547506399354055</v>
+        <v>0.8524310440741411</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>469</v>
@@ -4263,19 +4263,19 @@
         <v>501339</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>478116</v>
+        <v>478019</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>526070</v>
+        <v>524277</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7306624654464697</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6968162317491013</v>
+        <v>0.6966748560484679</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7667054515338845</v>
+        <v>0.7640923565326897</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>944</v>
@@ -4284,19 +4284,19 @@
         <v>1037653</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1003388</v>
+        <v>1006579</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1066676</v>
+        <v>1068448</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.776903202667646</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7512483441301216</v>
+        <v>0.7536378117081558</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.798633418471273</v>
+        <v>0.799959736829116</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>113170</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>94337</v>
+        <v>95844</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>135062</v>
+        <v>134326</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1742460652461869</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1452493600645946</v>
+        <v>0.1475689559258589</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.207953037264023</v>
+        <v>0.206820172120441</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>172</v>
@@ -4334,19 +4334,19 @@
         <v>184804</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>160073</v>
+        <v>161866</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>208027</v>
+        <v>208124</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2693375345535303</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2332945484661156</v>
+        <v>0.2359076434673103</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3031837682508988</v>
+        <v>0.303325143951532</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>271</v>
@@ -4355,19 +4355,19 @@
         <v>297974</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>268951</v>
+        <v>267179</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>332239</v>
+        <v>329048</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.223096797332354</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2013665815287269</v>
+        <v>0.200040263170884</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2487516558698784</v>
+        <v>0.2463621882918442</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>641625</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>619902</v>
+        <v>619583</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>660741</v>
+        <v>661475</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.837492867737144</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8091378933744964</v>
+        <v>0.8087217125582137</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8624444302468538</v>
+        <v>0.8634027851643609</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>556</v>
@@ -4480,19 +4480,19 @@
         <v>606071</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>577575</v>
+        <v>578299</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>631633</v>
+        <v>632645</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7378590166721392</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.703167376585683</v>
+        <v>0.7040481712991099</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7689802139508064</v>
+        <v>0.7702112517048867</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1175</v>
@@ -4501,19 +4501,19 @@
         <v>1247697</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1212349</v>
+        <v>1212773</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1279641</v>
+        <v>1281552</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7859417130678146</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7636757468430515</v>
+        <v>0.7639425873351977</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8060641784532354</v>
+        <v>0.8072676749819582</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>124501</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>105385</v>
+        <v>104651</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>146224</v>
+        <v>146543</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.162507132262856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1375555697531463</v>
+        <v>0.1365972148356396</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.190862106625504</v>
+        <v>0.1912782874417865</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>195</v>
@@ -4551,19 +4551,19 @@
         <v>215320</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>189758</v>
+        <v>188746</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>243816</v>
+        <v>243092</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2621409833278608</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2310197860491936</v>
+        <v>0.2297887482951132</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2968326234143169</v>
+        <v>0.2959518287008898</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>315</v>
@@ -4572,19 +4572,19 @@
         <v>339821</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>307877</v>
+        <v>305966</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>375169</v>
+        <v>374745</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2140582869321855</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1939358215467646</v>
+        <v>0.1927323250180419</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2363242531569487</v>
+        <v>0.2360574126648024</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>2826631</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2782287</v>
+        <v>2781413</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2866530</v>
+        <v>2868051</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8418193306372436</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8286130561075479</v>
+        <v>0.8283526230432625</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8537020422890653</v>
+        <v>0.8541549090160839</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2433</v>
@@ -4697,19 +4697,19 @@
         <v>2576809</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2520654</v>
+        <v>2523727</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2623618</v>
+        <v>2632707</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7366616000648941</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7206079959339199</v>
+        <v>0.7214863274920306</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7500434816736201</v>
+        <v>0.7526417624554893</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5131</v>
@@ -4718,19 +4718,19 @@
         <v>5403440</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5326679</v>
+        <v>5335318</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5469743</v>
+        <v>5470915</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7881652949642197</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7769686467501283</v>
+        <v>0.7782287879894464</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7978364528565328</v>
+        <v>0.7980074749237784</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>531133</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>491234</v>
+        <v>489713</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>575477</v>
+        <v>576351</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1581806693627564</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1462979577109347</v>
+        <v>0.145845090983916</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1713869438924522</v>
+        <v>0.1716473769567373</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>863</v>
@@ -4768,19 +4768,19 @@
         <v>921146</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>874337</v>
+        <v>865248</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>977301</v>
+        <v>974228</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2633383999351059</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.24995651832638</v>
+        <v>0.2473582375445108</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2793920040660801</v>
+        <v>0.27851367250797</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1362</v>
@@ -4789,19 +4789,19 @@
         <v>1452279</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1385976</v>
+        <v>1384804</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1529040</v>
+        <v>1520401</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2118347050357803</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2021635471434671</v>
+        <v>0.2019925250762215</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2230313532498716</v>
+        <v>0.2217712120105536</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>295682</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>285777</v>
+        <v>285306</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>303653</v>
+        <v>303264</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.927354579248748</v>
+        <v>0.9273545792487481</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8962867350717265</v>
+        <v>0.8948098469632743</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9523526283779192</v>
+        <v>0.9511319336245305</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>460</v>
@@ -5158,19 +5158,19 @@
         <v>275014</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>264982</v>
+        <v>265375</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>283391</v>
+        <v>283677</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8701280821584004</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8383897766117628</v>
+        <v>0.8396315754175764</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8966347012550812</v>
+        <v>0.897537971130134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>765</v>
@@ -5179,19 +5179,19 @@
         <v>570696</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>557617</v>
+        <v>557061</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>582749</v>
+        <v>583231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8988668257408606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8782662707554594</v>
+        <v>0.8773917338111444</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9178512084674812</v>
+        <v>0.9186101456666244</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>23163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15192</v>
+        <v>15581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33068</v>
+        <v>33539</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07264542075125195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04764737162208086</v>
+        <v>0.04886806637546943</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1037132649282735</v>
+        <v>0.105190153036726</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>78</v>
@@ -5229,19 +5229,19 @@
         <v>41047</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32670</v>
+        <v>32384</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51079</v>
+        <v>50686</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1298719178415996</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1033652987449188</v>
+        <v>0.1024620288698662</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.161610223388237</v>
+        <v>0.1603684245824239</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>104</v>
@@ -5250,19 +5250,19 @@
         <v>64210</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52157</v>
+        <v>51675</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>77289</v>
+        <v>77845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1011331742591395</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08214879153251858</v>
+        <v>0.08138985433337595</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1217337292445409</v>
+        <v>0.1226082661888554</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>438390</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>413741</v>
+        <v>414712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>457464</v>
+        <v>458079</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8296783223402679</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7830290563085064</v>
+        <v>0.7848676889055239</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8657778920549514</v>
+        <v>0.8669408677149173</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>508</v>
@@ -5375,19 +5375,19 @@
         <v>394495</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>375976</v>
+        <v>374491</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>412448</v>
+        <v>412991</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7265108072673775</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6924063040491518</v>
+        <v>0.6896716338558653</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7595737775404342</v>
+        <v>0.7605742339638272</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>822</v>
@@ -5396,19 +5396,19 @@
         <v>832884</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>804502</v>
+        <v>804627</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>861714</v>
+        <v>858399</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7773909362695329</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7508994892249773</v>
+        <v>0.7510160136853204</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8043003035237608</v>
+        <v>0.8012054623184226</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>89995</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>70921</v>
+        <v>70306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>114644</v>
+        <v>113673</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1703216776597321</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1342221079450487</v>
+        <v>0.1330591322850821</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2169709436914939</v>
+        <v>0.215132311094476</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>204</v>
@@ -5446,19 +5446,19 @@
         <v>148504</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>130551</v>
+        <v>130008</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>167023</v>
+        <v>168508</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2734891927326225</v>
+        <v>0.2734891927326224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2404262224595658</v>
+        <v>0.2394257660361725</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3075936959508482</v>
+        <v>0.3103283661441348</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>270</v>
@@ -5467,19 +5467,19 @@
         <v>238500</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>209670</v>
+        <v>212985</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>266882</v>
+        <v>266757</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2226090637304671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1956996964762392</v>
+        <v>0.1987945376815778</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2491005107750231</v>
+        <v>0.2489839863146799</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>260347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>247251</v>
+        <v>245580</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>273220</v>
+        <v>271830</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.829058220910341</v>
+        <v>0.8290582209103409</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7873544913024134</v>
+        <v>0.7820334687190824</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8700512793001349</v>
+        <v>0.8656256541264131</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>425</v>
@@ -5592,19 +5592,19 @@
         <v>286738</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>273792</v>
+        <v>274405</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>299049</v>
+        <v>297834</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8076432086895686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7711772341023857</v>
+        <v>0.7729041434403804</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8423192904058212</v>
+        <v>0.8388953495566361</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>722</v>
@@ -5613,19 +5613,19 @@
         <v>547085</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>529127</v>
+        <v>529130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>565671</v>
+        <v>562916</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.817694501170588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7908543958148797</v>
+        <v>0.7908576251875931</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8454742789626662</v>
+        <v>0.8413567568021751</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>53680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40807</v>
+        <v>42197</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66776</v>
+        <v>68447</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.170941779089659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1299487206998649</v>
+        <v>0.1343743458735869</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2126455086975867</v>
+        <v>0.2179665312809176</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>109</v>
@@ -5663,19 +5663,19 @@
         <v>68293</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>55982</v>
+        <v>57197</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>81239</v>
+        <v>80626</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1923567913104312</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1576807095941789</v>
+        <v>0.1611046504433638</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2288227658976147</v>
+        <v>0.2270958565596194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>170</v>
@@ -5684,19 +5684,19 @@
         <v>121973</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>103387</v>
+        <v>106142</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>139931</v>
+        <v>139928</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1823054988294121</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.154525721037334</v>
+        <v>0.1586432431978251</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2091456041851205</v>
+        <v>0.2091423748124078</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>299173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>279784</v>
+        <v>278665</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>316143</v>
+        <v>315795</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8049524888196756</v>
+        <v>0.8049524888196754</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7527848260888093</v>
+        <v>0.7497740196237204</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8506138898091454</v>
+        <v>0.8496766320226504</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>415</v>
@@ -5809,19 +5809,19 @@
         <v>296313</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>277736</v>
+        <v>278796</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>311712</v>
+        <v>314695</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7073132928122671</v>
+        <v>0.707313292812267</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6629695533801949</v>
+        <v>0.665499871030042</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7440717992163616</v>
+        <v>0.751193365297448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>641</v>
@@ -5830,19 +5830,19 @@
         <v>595486</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>567706</v>
+        <v>568529</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>620220</v>
+        <v>621904</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7532144573740024</v>
+        <v>0.7532144573740022</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7180764525625339</v>
+        <v>0.7191171513107822</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7844992714812871</v>
+        <v>0.7866297037682822</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>72492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55522</v>
+        <v>55870</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91881</v>
+        <v>93000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1950475111803245</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1493861101908543</v>
+        <v>0.1503233679773497</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2472151739111906</v>
+        <v>0.2502259803762801</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>180</v>
@@ -5880,19 +5880,19 @@
         <v>122614</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>107215</v>
+        <v>104232</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>141191</v>
+        <v>140131</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.292686707187733</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2559282007836386</v>
+        <v>0.2488066347025521</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3370304466198054</v>
+        <v>0.3345001289699579</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -5901,19 +5901,19 @@
         <v>195107</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>170373</v>
+        <v>168689</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>222887</v>
+        <v>222064</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2467855426259978</v>
+        <v>0.2467855426259977</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2155007285187131</v>
+        <v>0.2133702962317177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2819235474374663</v>
+        <v>0.2808828486892174</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>189002</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181324</v>
+        <v>181497</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>194136</v>
+        <v>194502</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9220762997725128</v>
+        <v>0.9220762997725129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8846177133643628</v>
+        <v>0.8854612615399888</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9471248292390111</v>
+        <v>0.9489125988423168</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>425</v>
@@ -6026,19 +6026,19 @@
         <v>196894</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>188519</v>
+        <v>189146</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>203600</v>
+        <v>202999</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8726700930577906</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.835551618118938</v>
+        <v>0.8383305647009551</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9023951666592833</v>
+        <v>0.8997317567318895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>678</v>
@@ -6047,19 +6047,19 @@
         <v>385894</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>375871</v>
+        <v>375517</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>394447</v>
+        <v>394613</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8961886182010114</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8729096551441015</v>
+        <v>0.8720894547974076</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9160518459037382</v>
+        <v>0.9164358795799535</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>15972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10838</v>
+        <v>10472</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23650</v>
+        <v>23477</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07792370022748711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05287517076098885</v>
+        <v>0.05108740115768317</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1153822866356373</v>
+        <v>0.1145387384600115</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>65</v>
@@ -6097,19 +6097,19 @@
         <v>28728</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22022</v>
+        <v>22623</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37103</v>
+        <v>36476</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1273299069422094</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09760483334071676</v>
+        <v>0.1002682432681106</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.164448381881062</v>
+        <v>0.1616694352990447</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>90</v>
@@ -6118,19 +6118,19 @@
         <v>44701</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36148</v>
+        <v>35982</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54724</v>
+        <v>55078</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1038113817989887</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08394815409626122</v>
+        <v>0.0835641204200467</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1270903448558985</v>
+        <v>0.1279105452025926</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>218797</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>205925</v>
+        <v>206304</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>229229</v>
+        <v>229992</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8082443426290659</v>
+        <v>0.8082443426290657</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7606921558548674</v>
+        <v>0.7620946822472956</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8467773392472282</v>
+        <v>0.8495962502965442</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>321</v>
@@ -6243,19 +6243,19 @@
         <v>189618</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>177762</v>
+        <v>178978</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>199666</v>
+        <v>200956</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7189290457704253</v>
+        <v>0.7189290457704249</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6739774934393138</v>
+        <v>0.6785884672945214</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.757027513470995</v>
+        <v>0.7619201144071469</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>619</v>
@@ -6264,19 +6264,19 @@
         <v>408415</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>392972</v>
+        <v>393476</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>424372</v>
+        <v>423899</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7641679741541048</v>
+        <v>0.7641679741541049</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7352736531477908</v>
+        <v>0.7362165310773595</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7940252438890465</v>
+        <v>0.793138847988396</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>51910</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41478</v>
+        <v>40715</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64782</v>
+        <v>64403</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1917556573709342</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1532226607527724</v>
+        <v>0.1504037497034559</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2393078441451327</v>
+        <v>0.2379053177527045</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>139</v>
@@ -6314,19 +6314,19 @@
         <v>74132</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>64084</v>
+        <v>62794</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>85988</v>
+        <v>84772</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2810709542295748</v>
+        <v>0.2810709542295747</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2429724865290052</v>
+        <v>0.2380798855928542</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3260225065606865</v>
+        <v>0.3214115327054788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>212</v>
@@ -6335,19 +6335,19 @@
         <v>126042</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>110085</v>
+        <v>110558</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141485</v>
+        <v>140981</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2358320258458952</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2059747561109534</v>
+        <v>0.2068611520116041</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2647263468522092</v>
+        <v>0.2637834689226408</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>581052</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>556663</v>
+        <v>556274</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>603177</v>
+        <v>601737</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8193255897237137</v>
+        <v>0.8193255897237136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7849359342979435</v>
+        <v>0.7843867485726366</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8505233607419839</v>
+        <v>0.8484927495838512</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>669</v>
@@ -6460,19 +6460,19 @@
         <v>538519</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>514279</v>
+        <v>517174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>559572</v>
+        <v>561791</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7136272245510026</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6815049416830611</v>
+        <v>0.6853417609496926</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7415258262718337</v>
+        <v>0.7444666151461092</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1149</v>
@@ -6481,19 +6481,19 @@
         <v>1119570</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1086565</v>
+        <v>1087870</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1150598</v>
+        <v>1149318</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7648358807975171</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7422883696685694</v>
+        <v>0.7431803529968561</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7860331165814867</v>
+        <v>0.785158463003323</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>128131</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>106006</v>
+        <v>107446</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>152520</v>
+        <v>152909</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1806744102762864</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1494766392580162</v>
+        <v>0.1515072504161487</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2150640657020564</v>
+        <v>0.2156132514273635</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>273</v>
@@ -6531,19 +6531,19 @@
         <v>216103</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>195050</v>
+        <v>192831</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>240343</v>
+        <v>237448</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2863727754489976</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2584741737281662</v>
+        <v>0.2555333848538908</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3184950583169388</v>
+        <v>0.3146582390503073</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>384</v>
@@ -6552,19 +6552,19 @@
         <v>344234</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>313206</v>
+        <v>314486</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>377239</v>
+        <v>375934</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2351641192024829</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2139668834185133</v>
+        <v>0.2148415369966771</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2577116303314306</v>
+        <v>0.2568196470031439</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>632849</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>607850</v>
+        <v>610060</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>654483</v>
+        <v>652898</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7929722666218918</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7616484439286725</v>
+        <v>0.7644167265503363</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8200797844362373</v>
+        <v>0.8180937897351367</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>672</v>
@@ -6677,19 +6677,19 @@
         <v>564085</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>538231</v>
+        <v>540489</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>583767</v>
+        <v>585853</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6791219641678242</v>
+        <v>0.6791219641678243</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6479962216555184</v>
+        <v>0.6507140703463665</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7028179913125501</v>
+        <v>0.7053296217981091</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1236</v>
@@ -6698,19 +6698,19 @@
         <v>1196934</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1162458</v>
+        <v>1161467</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1226137</v>
+        <v>1227942</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7349098980946636</v>
+        <v>0.7349098980946637</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7137418551473962</v>
+        <v>0.7131337529266332</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7528407789522682</v>
+        <v>0.7539487867033001</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>165223</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>143589</v>
+        <v>145174</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>190222</v>
+        <v>188012</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2070277333781081</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1799202155637628</v>
+        <v>0.1819062102648635</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2383515560713277</v>
+        <v>0.2355832734496638</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>389</v>
@@ -6748,19 +6748,19 @@
         <v>266524</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>246842</v>
+        <v>244756</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>292378</v>
+        <v>290120</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3208780358321756</v>
+        <v>0.3208780358321757</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2971820086874498</v>
+        <v>0.2946703782018911</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3520037783444816</v>
+        <v>0.3492859296536335</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>587</v>
@@ -6769,19 +6769,19 @@
         <v>431747</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>402544</v>
+        <v>400739</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>466223</v>
+        <v>467214</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2650901019053363</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2471592210477319</v>
+        <v>0.2460512132966999</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2862581448526041</v>
+        <v>0.286866247073367</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>2915291</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2869599</v>
+        <v>2868162</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2962724</v>
+        <v>2964273</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.8291834018817611</v>
+        <v>0.8291834018817612</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.816187322381325</v>
+        <v>0.8157785977722531</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8426746019202755</v>
+        <v>0.8431150226549353</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3895</v>
@@ -6894,19 +6894,19 @@
         <v>2741673</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2694643</v>
+        <v>2695051</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2790230</v>
+        <v>2789002</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.739469830589527</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7267852252604039</v>
+        <v>0.7268951485169785</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7525662586504011</v>
+        <v>0.7522350662302815</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6632</v>
@@ -6915,19 +6915,19 @@
         <v>5656964</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5584684</v>
+        <v>5588124</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5720795</v>
+        <v>5721669</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7831358020422057</v>
+        <v>0.7831358020422056</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7731295489654819</v>
+        <v>0.7736057071347595</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7919723987592674</v>
+        <v>0.7920933387191219</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>600567</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>553134</v>
+        <v>551585</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>646259</v>
+        <v>647696</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1708165981182388</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1573253980797246</v>
+        <v>0.1568849773450648</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.183812677618675</v>
+        <v>0.184221402227747</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1437</v>
@@ -6965,19 +6965,19 @@
         <v>965947</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>917390</v>
+        <v>918618</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1012977</v>
+        <v>1012569</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.260530169410473</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2474337413495989</v>
+        <v>0.2477649337697185</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.273214774739596</v>
+        <v>0.2731048514830218</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2062</v>
@@ -6986,19 +6986,19 @@
         <v>1566514</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1502683</v>
+        <v>1501809</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1638794</v>
+        <v>1635354</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2168641979577944</v>
+        <v>0.2168641979577945</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2080276012407326</v>
+        <v>0.2079066612808781</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2268704510345181</v>
+        <v>0.2263942928652405</v>
       </c>
     </row>
     <row r="30">
